--- a/Case1/case1.xlsx
+++ b/Case1/case1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Test CaseNo</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">                      A</t>
+  </si>
+  <si>
+    <t>Passing All Integers</t>
+  </si>
+  <si>
+    <t>Passing All Characters</t>
   </si>
 </sst>
 </file>
@@ -100,19 +106,24 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,22 +135,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,7 +454,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,28 +467,28 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -484,12 +503,12 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="3"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -502,10 +521,10 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -518,10 +537,10 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -534,10 +553,10 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -552,12 +571,12 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -570,10 +589,10 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -586,10 +605,10 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -602,10 +621,10 @@
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -620,12 +639,12 @@
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -638,10 +657,10 @@
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -654,10 +673,10 @@
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -670,49 +689,45 @@
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.5629999999999997</v>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -722,81 +737,73 @@
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="5">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="4">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1">
-        <v>4.5629999999999997</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1">
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -806,10 +813,10 @@
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="F18:F21"/>
@@ -820,6 +827,8 @@
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
